--- a/web/Proveedor.xlsx
+++ b/web/Proveedor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1517">
   <si>
     <t>Id</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Ca 48 52 Sur 81</t>
   </si>
   <si>
-    <t>jrengifo@inc-group.co</t>
+    <t>manuelgb13@gmail.com</t>
   </si>
   <si>
     <t>9999 9 ext 23</t>
@@ -4557,6 +4557,15 @@
   </si>
   <si>
     <t>2016-06-29</t>
+  </si>
+  <si>
+    <t>manue@gmail.com</t>
+  </si>
+  <si>
+    <t>2016-08-25</t>
+  </si>
+  <si>
+    <t>AUDIO Y VIDEO</t>
   </si>
 </sst>
 </file>
@@ -4898,7 +4907,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y310"/>
+  <dimension ref="A1:Y311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -24283,6 +24292,58 @@
       <c r="W310"/>
       <c r="X310"/>
       <c r="Y310" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25">
+      <c r="A311">
+        <v>475</v>
+      </c>
+      <c r="B311" t="s">
+        <v>40</v>
+      </c>
+      <c r="C311" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" t="s">
+        <v>41</v>
+      </c>
+      <c r="E311" t="s">
+        <v>41</v>
+      </c>
+      <c r="F311">
+        <v>5345235</v>
+      </c>
+      <c r="G311">
+        <v>5345235</v>
+      </c>
+      <c r="H311"/>
+      <c r="I311"/>
+      <c r="J311" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K311"/>
+      <c r="L311"/>
+      <c r="N311" t="b">
+        <v>0</v>
+      </c>
+      <c r="O311"/>
+      <c r="P311"/>
+      <c r="Q311" t="s">
+        <v>34</v>
+      </c>
+      <c r="R311" t="s">
+        <v>1515</v>
+      </c>
+      <c r="S311" t="s">
+        <v>1516</v>
+      </c>
+      <c r="T311"/>
+      <c r="U311"/>
+      <c r="V311"/>
+      <c r="W311"/>
+      <c r="X311"/>
+      <c r="Y311" t="s">
         <v>39</v>
       </c>
     </row>

--- a/web/Proveedor.xlsx
+++ b/web/Proveedor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1438">
   <si>
     <t>Id</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Ca 48 52 Sur 81</t>
   </si>
   <si>
-    <t>manuelgb13@gmail.com</t>
+    <t>jrengifo@inc-group.co</t>
   </si>
   <si>
     <t>9999 9 ext 23</t>
@@ -389,7 +389,7 @@
     <t>CARRERA 8 No 64-42 PISO 7</t>
   </si>
   <si>
-    <t>elcy.diaz@sodexo.com,edwin.celis@sodexo.com</t>
+    <t>elcy.diaz@sodexo.com,sergio.huerfano@sodexo.com,maria.moros@sodexo.com</t>
   </si>
   <si>
     <t>R046382109</t>
@@ -641,7 +641,7 @@
     <t>Av. Calle 24 No. 95 - 12 BODEGA 49</t>
   </si>
   <si>
-    <t>televentas@athletic.co</t>
+    <t>juan.zuluaga2014@gmail.com</t>
   </si>
   <si>
     <t>RO44273436</t>
@@ -920,7 +920,7 @@
     <t>Cr 45 No. 32d-135</t>
   </si>
   <si>
-    <t>andres.giraldo@landers.com.co,paola.plazas@landers.com.co</t>
+    <t>oscar.anzola@landers.com.co,paola.plazas@landers.com.co</t>
   </si>
   <si>
     <t>BELLO</t>
@@ -1808,7 +1808,7 @@
     <t>calle86a # 13-42 piso 2</t>
   </si>
   <si>
-    <t>compras4@inc-group.co,tesoreria@inc-group.co, tesoreria@inc-services.co, ogomez@inc-services.co</t>
+    <t>compras4@inc-group.co,tesoreria@inc-group.co, tesoreria@inc-services.co, lsaldana@inc-services.co</t>
   </si>
   <si>
     <t>http://www.grupo-inc.com/</t>
@@ -2975,13 +2975,10 @@
     <t>900690987-8</t>
   </si>
   <si>
-    <t>MANIZALEZ</t>
-  </si>
-  <si>
     <t>KM 5  ANTIGUA VIA AL NEVADO VDA GALLINAZO</t>
   </si>
   <si>
-    <t>contabilidadecotermales@gmail.com</t>
+    <t>operadorturisticoecotermales@outlo</t>
   </si>
   <si>
     <t>3 1 0 4 5 1 0 1 7 6</t>
@@ -2999,25 +2996,22 @@
     <t>http://www.parquedelcafe.co/</t>
   </si>
   <si>
-    <t>PARQUE EL CAFÉ</t>
-  </si>
-  <si>
-    <t>infotienda@parquedelcafe.co</t>
+    <t>neniss_97@hotmail.com</t>
+  </si>
+  <si>
+    <t>COMPAÑIA DE RESTAURANTES PANORAMA S.A.</t>
+  </si>
+  <si>
+    <t>900062875-8</t>
   </si>
   <si>
     <t>MANIZALES</t>
   </si>
   <si>
-    <t>COMPAÑIA DE RESTAURANTES PANORAMA S.A.</t>
-  </si>
-  <si>
-    <t>900062875-8</t>
-  </si>
-  <si>
     <t>CARRERA  23 C   64      18</t>
   </si>
   <si>
-    <t>crepsapublicidad@gmail.com</t>
+    <t>CREPSAS@YAHOO.ES</t>
   </si>
   <si>
     <t>2015-09-10</t>
@@ -3029,13 +3023,10 @@
     <t>41915946-9</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>KM 2 VIA CIRCACIA</t>
   </si>
   <si>
-    <t>restaurante-elsolar@hotmail.com</t>
+    <t>restaurante-elsolar@hotmail.com,compras4@grupo-inc.com</t>
   </si>
   <si>
     <t>BARRANQUILLA</t>
@@ -3065,7 +3056,7 @@
     <t>CR 25 CL 50 ESQ</t>
   </si>
   <si>
-    <t>maritza.idarraga@confa.co</t>
+    <t>COMFAMILIARES@COMFAMILIARE</t>
   </si>
   <si>
     <t>https://www.comfamiliar.com/</t>
@@ -3083,10 +3074,7 @@
     <t>CL 16   15   22</t>
   </si>
   <si>
-    <t>cnaranjo@comfamiliar.com</t>
-  </si>
-  <si>
-    <t>3135600 ext 2260</t>
+    <t>juliansalazar@comfenalcoquindio.co</t>
   </si>
   <si>
     <t>http://www.comfenalcoquindio.com/</t>
@@ -3101,7 +3089,7 @@
     <t xml:space="preserve">CALLE 34 44 63 P 4 </t>
   </si>
   <si>
-    <t>heidy.vargas@combarranquilla.co</t>
+    <t>INFO@COMBARRANQUILLA.CO</t>
   </si>
   <si>
     <t>https://www.combarranquilla.co/public_html/enlinea2/login_c.php</t>
@@ -3119,6 +3107,9 @@
     <t>AV CIRCUNVALAR   3   01 P 2</t>
   </si>
   <si>
+    <t>comfarda@comfamiliar.com</t>
+  </si>
+  <si>
     <t>2015-09-14</t>
   </si>
   <si>
@@ -3302,13 +3293,7 @@
     <t>LIMA</t>
   </si>
   <si>
-    <t xml:space="preserve">Linio Peru </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru </t>
-  </si>
-  <si>
-    <t>37 - 4</t>
+    <t>LInio</t>
   </si>
   <si>
     <t>contacto.pe@linio.com</t>
@@ -4280,30 +4265,21 @@
     <t>96861090-2</t>
   </si>
   <si>
-    <t>Santa Rosa 325</t>
+    <t>camila.balbontin@la.spectrumbrands.com</t>
+  </si>
+  <si>
+    <t>2016-05-26</t>
+  </si>
+  <si>
+    <t>Nautika</t>
+  </si>
+  <si>
+    <t>78.982.930-6</t>
   </si>
   <si>
     <t>cisaza@inc-group.co</t>
   </si>
   <si>
-    <t>2016-05-26</t>
-  </si>
-  <si>
-    <t>Nautika</t>
-  </si>
-  <si>
-    <t>78.982.930-6</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisaza@inc-group.co </t>
-  </si>
-  <si>
-    <t>325 945965260</t>
-  </si>
-  <si>
     <t>2016-05-31</t>
   </si>
   <si>
@@ -4353,219 +4329,6 @@
   </si>
   <si>
     <t>2016-06-03</t>
-  </si>
-  <si>
-    <t>SOMELA</t>
-  </si>
-  <si>
-    <t>76094327-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Rosa </t>
-  </si>
-  <si>
-    <t>(+569) 68264999</t>
-  </si>
-  <si>
-    <t>2016-06-07</t>
-  </si>
-  <si>
-    <t>CINEPLANET</t>
-  </si>
-  <si>
-    <t>76.179.370-5</t>
-  </si>
-  <si>
-    <t>jsoto@cineplanet.cl</t>
-  </si>
-  <si>
-    <t>22 481 2272</t>
-  </si>
-  <si>
-    <t>CENCOSUD</t>
-  </si>
-  <si>
-    <t>77.312.480-9</t>
-  </si>
-  <si>
-    <t>gisela.bodaleo@externos-cl.cencosud.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 817 1700 </t>
-  </si>
-  <si>
-    <t>FALABELLA</t>
-  </si>
-  <si>
-    <t>77.261.280-K</t>
-  </si>
-  <si>
-    <t>RTA DESIGN CHILE SPA</t>
-  </si>
-  <si>
-    <t>76.427.389-3</t>
-  </si>
-  <si>
-    <t>232025111 / 23205110</t>
-  </si>
-  <si>
-    <t>ILKO</t>
-  </si>
-  <si>
-    <t>93.550.000-1</t>
-  </si>
-  <si>
-    <t>MERCADEO EFECTIVO SAS</t>
-  </si>
-  <si>
-    <t>830135377-2</t>
-  </si>
-  <si>
-    <t>laguilar@mercadeoefectivo.com</t>
-  </si>
-  <si>
-    <t>2016-06-10</t>
-  </si>
-  <si>
-    <t>MAKRO OFFICE LTDA</t>
-  </si>
-  <si>
-    <t>830010792-9</t>
-  </si>
-  <si>
-    <t>CL 32 BIS A 13 IN 1 AP 201</t>
-  </si>
-  <si>
-    <t>jilbertmancilla@makrooffice.com.co</t>
-  </si>
-  <si>
-    <t>R049603453</t>
-  </si>
-  <si>
-    <t>6073311-3406688</t>
-  </si>
-  <si>
-    <t>2016-06-13</t>
-  </si>
-  <si>
-    <t>MONTREAL PELUQUERIA UNISEX</t>
-  </si>
-  <si>
-    <t>22444193-9</t>
-  </si>
-  <si>
-    <t>Atlantico</t>
-  </si>
-  <si>
-    <t>Cr 38 79A 15</t>
-  </si>
-  <si>
-    <t>carlosangarita@hotmail.com</t>
-  </si>
-  <si>
-    <t>2016-06-15</t>
-  </si>
-  <si>
-    <t>OROZCO CASTAÑO LUCELLY</t>
-  </si>
-  <si>
-    <t>25125996-9</t>
-  </si>
-  <si>
-    <t>CALDAS</t>
-  </si>
-  <si>
-    <t>CR 22 29 29 P4</t>
-  </si>
-  <si>
-    <t>lucita961@hotmail.com</t>
-  </si>
-  <si>
-    <t>8815801-3128571870</t>
-  </si>
-  <si>
-    <t>2016-06-17</t>
-  </si>
-  <si>
-    <t>360 PELUQUERIA</t>
-  </si>
-  <si>
-    <t>18516739-5</t>
-  </si>
-  <si>
-    <t>Pereira</t>
-  </si>
-  <si>
-    <t>Cr13 14-60 L-209</t>
-  </si>
-  <si>
-    <t>peluqueria360@gmail.com</t>
-  </si>
-  <si>
-    <t>CAJA DE COMPENSACIÓN FAMILIAR DEL HUILA</t>
-  </si>
-  <si>
-    <t>891180008-2</t>
-  </si>
-  <si>
-    <t>Huila-Neiva</t>
-  </si>
-  <si>
-    <t>CL 11 5 63 BRR CENTRO</t>
-  </si>
-  <si>
-    <t>contabilidad@comfamiliarhuila.com</t>
-  </si>
-  <si>
-    <t>8713092-8721725</t>
-  </si>
-  <si>
-    <t>2016-06-27</t>
-  </si>
-  <si>
-    <t>EKOTREK S.A.S</t>
-  </si>
-  <si>
-    <t>860526596-6</t>
-  </si>
-  <si>
-    <t>CR 126A 17 50</t>
-  </si>
-  <si>
-    <t>contraloria1@casainglesa.co</t>
-  </si>
-  <si>
-    <t>R048793772</t>
-  </si>
-  <si>
-    <t>4227700-3102405221</t>
-  </si>
-  <si>
-    <t>COLCHONES EL DORADO S.A.</t>
-  </si>
-  <si>
-    <t>860041265-0</t>
-  </si>
-  <si>
-    <t>AC 17 80A 70</t>
-  </si>
-  <si>
-    <t>ytarapuez@colchoneseldorado.com</t>
-  </si>
-  <si>
-    <t>R050050296</t>
-  </si>
-  <si>
-    <t>2016-06-29</t>
-  </si>
-  <si>
-    <t>manue@gmail.com</t>
-  </si>
-  <si>
-    <t>2016-08-25</t>
-  </si>
-  <si>
-    <t>AUDIO Y VIDEO</t>
   </si>
 </sst>
 </file>
@@ -4907,7 +4670,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y311"/>
+  <dimension ref="A1:Y296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -18161,25 +17924,23 @@
       <c r="G207" t="s">
         <v>985</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H207"/>
+      <c r="I207" t="s">
         <v>986</v>
       </c>
-      <c r="I207" t="s">
+      <c r="J207" t="s">
         <v>987</v>
-      </c>
-      <c r="J207" t="s">
-        <v>988</v>
       </c>
       <c r="K207"/>
       <c r="L207" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N207" t="b">
         <v>0</v>
       </c>
       <c r="O207"/>
       <c r="P207" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="Q207" t="s">
         <v>34</v>
@@ -18193,12 +17954,8 @@
       <c r="T207"/>
       <c r="U207"/>
       <c r="V207"/>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
+      <c r="W207"/>
+      <c r="X207"/>
       <c r="Y207" t="s">
         <v>39</v>
       </c>
@@ -18220,30 +17977,26 @@
         <v>27</v>
       </c>
       <c r="F208" t="s">
+        <v>990</v>
+      </c>
+      <c r="G208" t="s">
         <v>991</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>992</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208"/>
+      <c r="J208" t="s">
         <v>993</v>
       </c>
-      <c r="I208" t="s">
-        <v>994</v>
-      </c>
-      <c r="J208" t="s">
-        <v>995</v>
-      </c>
       <c r="K208"/>
-      <c r="L208">
-        <v>3173632623</v>
-      </c>
+      <c r="L208"/>
       <c r="N208" t="b">
         <v>0</v>
       </c>
       <c r="O208"/>
       <c r="P208" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q208" t="s">
         <v>34</v>
@@ -18257,12 +18010,8 @@
       <c r="T208"/>
       <c r="U208"/>
       <c r="V208"/>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
+      <c r="W208"/>
+      <c r="X208"/>
       <c r="Y208" t="s">
         <v>39</v>
       </c>
@@ -18275,32 +18024,32 @@
         <v>50</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D209" t="s">
-        <v>996</v>
+        <v>41</v>
       </c>
       <c r="E209" t="s">
         <v>27</v>
       </c>
       <c r="F209" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G209" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H209" t="s">
         <v>996</v>
       </c>
       <c r="I209" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J209" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="K209"/>
       <c r="L209">
-        <v>8853177</v>
+        <v>8860849</v>
       </c>
       <c r="N209" t="b">
         <v>0</v>
@@ -18311,7 +18060,7 @@
         <v>34</v>
       </c>
       <c r="R209" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S209" t="s">
         <v>36</v>
@@ -18319,12 +18068,8 @@
       <c r="T209"/>
       <c r="U209"/>
       <c r="V209"/>
-      <c r="W209">
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <v>0</v>
-      </c>
+      <c r="W209"/>
+      <c r="X209"/>
       <c r="Y209" t="s">
         <v>39</v>
       </c>
@@ -18346,19 +18091,17 @@
         <v>27</v>
       </c>
       <c r="F210" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H210"/>
+      <c r="I210" t="s">
         <v>1002</v>
       </c>
-      <c r="G210" t="s">
+      <c r="J210" t="s">
         <v>1003</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I210" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1006</v>
       </c>
       <c r="K210"/>
       <c r="L210">
@@ -18373,7 +18116,7 @@
         <v>34</v>
       </c>
       <c r="R210" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S210" t="s">
         <v>36</v>
@@ -18381,12 +18124,8 @@
       <c r="T210"/>
       <c r="U210"/>
       <c r="V210"/>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
+      <c r="W210"/>
+      <c r="X210"/>
       <c r="Y210" t="s">
         <v>39</v>
       </c>
@@ -18402,25 +18141,25 @@
         <v>25</v>
       </c>
       <c r="D211" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E211" t="s">
+        <v>27</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I211" t="s">
         <v>1007</v>
       </c>
-      <c r="E211" t="s">
-        <v>27</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="J211" t="s">
         <v>1008</v>
-      </c>
-      <c r="G211" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H211" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I211" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J211" t="s">
-        <v>1011</v>
       </c>
       <c r="K211"/>
       <c r="L211">
@@ -18431,13 +18170,13 @@
       </c>
       <c r="O211"/>
       <c r="P211" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="Q211" t="s">
         <v>34</v>
       </c>
       <c r="R211" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S211" t="s">
         <v>36</v>
@@ -18468,19 +18207,19 @@
         <v>27</v>
       </c>
       <c r="F212" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G212" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="H212" t="s">
         <v>996</v>
       </c>
       <c r="I212" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="J212" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="K212"/>
       <c r="L212">
@@ -18491,13 +18230,13 @@
       </c>
       <c r="O212"/>
       <c r="P212" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Q212" t="s">
         <v>34</v>
       </c>
       <c r="R212" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S212" t="s">
         <v>36</v>
@@ -18532,36 +18271,36 @@
         <v>27</v>
       </c>
       <c r="F213" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I213" t="s">
         <v>1018</v>
       </c>
-      <c r="G213" t="s">
+      <c r="J213" t="s">
         <v>1019</v>
       </c>
-      <c r="H213" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1022</v>
-      </c>
       <c r="K213"/>
-      <c r="L213" t="s">
-        <v>1023</v>
+      <c r="L213">
+        <v>7417501</v>
       </c>
       <c r="N213" t="b">
         <v>0</v>
       </c>
       <c r="O213"/>
       <c r="P213" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q213" t="s">
         <v>34</v>
       </c>
       <c r="R213" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S213" t="s">
         <v>36</v>
@@ -18590,25 +18329,25 @@
         <v>25</v>
       </c>
       <c r="D214" t="s">
-        <v>1007</v>
+        <v>41</v>
       </c>
       <c r="E214" t="s">
         <v>27</v>
       </c>
       <c r="F214" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="G214" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H214" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I214" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="J214" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="K214"/>
       <c r="L214">
@@ -18619,13 +18358,13 @@
       </c>
       <c r="O214"/>
       <c r="P214" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="Q214" t="s">
         <v>34</v>
       </c>
       <c r="R214" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S214" t="s">
         <v>36</v>
@@ -18660,36 +18399,36 @@
         <v>27</v>
       </c>
       <c r="F215" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J215" t="s">
         <v>1030</v>
       </c>
-      <c r="G215" t="s">
-        <v>1031</v>
-      </c>
-      <c r="H215" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I215" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J215" t="s">
-        <v>1022</v>
-      </c>
       <c r="K215"/>
-      <c r="L215" t="s">
-        <v>1023</v>
+      <c r="L215">
+        <v>3135604</v>
       </c>
       <c r="N215" t="b">
         <v>0</v>
       </c>
       <c r="O215"/>
       <c r="P215" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Q215" t="s">
         <v>34</v>
       </c>
       <c r="R215" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="S215" t="s">
         <v>36</v>
@@ -18724,7 +18463,7 @@
         <v>27</v>
       </c>
       <c r="F216" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G216">
         <v>8301331326</v>
@@ -18733,10 +18472,10 @@
         <v>26</v>
       </c>
       <c r="I216" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="J216" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="K216"/>
       <c r="L216">
@@ -18751,7 +18490,7 @@
         <v>34</v>
       </c>
       <c r="R216" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="S216" t="s">
         <v>777</v>
@@ -18782,19 +18521,19 @@
         <v>27</v>
       </c>
       <c r="F217" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G217" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H217" t="s">
         <v>170</v>
       </c>
       <c r="I217" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J217" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="K217"/>
       <c r="L217">
@@ -18809,10 +18548,10 @@
         <v>34</v>
       </c>
       <c r="R217" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="S217" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="T217"/>
       <c r="U217"/>
@@ -18831,7 +18570,7 @@
         <v>50</v>
       </c>
       <c r="C218" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D218" t="s">
         <v>41</v>
@@ -18840,23 +18579,23 @@
         <v>27</v>
       </c>
       <c r="F218" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I218" t="s">
         <v>1046</v>
       </c>
-      <c r="G218" t="s">
+      <c r="J218" t="s">
         <v>1047</v>
-      </c>
-      <c r="H218" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I218" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J218" t="s">
-        <v>1050</v>
       </c>
       <c r="K218"/>
       <c r="L218" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="N218" t="b">
         <v>0</v>
@@ -18867,7 +18606,7 @@
         <v>34</v>
       </c>
       <c r="R218" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="S218" t="s">
         <v>36</v>
@@ -18902,23 +18641,23 @@
         <v>42</v>
       </c>
       <c r="F219" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H219" t="s">
+        <v>26</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J219" t="s">
         <v>1053</v>
-      </c>
-      <c r="G219" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H219" t="s">
-        <v>26</v>
-      </c>
-      <c r="I219" t="s">
-        <v>1055</v>
-      </c>
-      <c r="J219" t="s">
-        <v>1056</v>
       </c>
       <c r="K219"/>
       <c r="L219" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="N219" t="b">
         <v>0</v>
@@ -18929,7 +18668,7 @@
         <v>34</v>
       </c>
       <c r="R219" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="S219" t="s">
         <v>777</v>
@@ -18964,19 +18703,19 @@
         <v>27</v>
       </c>
       <c r="F220" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H220" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J220" t="s">
         <v>1059</v>
-      </c>
-      <c r="G220" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H220" t="s">
-        <v>26</v>
-      </c>
-      <c r="I220" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J220" t="s">
-        <v>1062</v>
       </c>
       <c r="K220"/>
       <c r="L220">
@@ -18991,7 +18730,7 @@
         <v>34</v>
       </c>
       <c r="R220" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="S220" t="s">
         <v>777</v>
@@ -19028,19 +18767,19 @@
         <v>27</v>
       </c>
       <c r="F221" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H221" t="s">
+        <v>26</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J221" t="s">
         <v>1063</v>
-      </c>
-      <c r="G221" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H221" t="s">
-        <v>26</v>
-      </c>
-      <c r="I221" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J221" t="s">
-        <v>1066</v>
       </c>
       <c r="K221"/>
       <c r="L221">
@@ -19055,14 +18794,14 @@
         <v>34</v>
       </c>
       <c r="R221" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="S221" t="s">
         <v>777</v>
       </c>
       <c r="T221"/>
       <c r="U221" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="V221"/>
       <c r="W221">
@@ -19092,23 +18831,23 @@
         <v>27</v>
       </c>
       <c r="F222" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H222" t="s">
+        <v>26</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J222" t="s">
         <v>1068</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H222" t="s">
-        <v>26</v>
-      </c>
-      <c r="I222" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J222" t="s">
-        <v>1071</v>
       </c>
       <c r="K222"/>
       <c r="L222" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="N222" t="b">
         <v>0</v>
@@ -19119,7 +18858,7 @@
         <v>34</v>
       </c>
       <c r="R222" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="S222" t="s">
         <v>67</v>
@@ -19154,19 +18893,19 @@
         <v>42</v>
       </c>
       <c r="F223" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H223" t="s">
+        <v>26</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J223" t="s">
         <v>1073</v>
-      </c>
-      <c r="G223" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H223" t="s">
-        <v>26</v>
-      </c>
-      <c r="I223" t="s">
-        <v>1075</v>
-      </c>
-      <c r="J223" t="s">
-        <v>1076</v>
       </c>
       <c r="K223"/>
       <c r="L223">
@@ -19181,7 +18920,7 @@
         <v>34</v>
       </c>
       <c r="R223" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="S223" t="s">
         <v>777</v>
@@ -19218,7 +18957,7 @@
         <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G224">
         <v>52517668</v>
@@ -19226,7 +18965,7 @@
       <c r="H224"/>
       <c r="I224"/>
       <c r="J224" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="K224"/>
       <c r="L224"/>
@@ -19239,7 +18978,7 @@
         <v>34</v>
       </c>
       <c r="R224" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="S224" t="s">
         <v>36</v>
@@ -19270,23 +19009,23 @@
         <v>27</v>
       </c>
       <c r="F225" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H225" t="s">
+        <v>26</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J225" t="s">
         <v>1081</v>
-      </c>
-      <c r="G225" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H225" t="s">
-        <v>26</v>
-      </c>
-      <c r="I225" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J225" t="s">
-        <v>1084</v>
       </c>
       <c r="K225"/>
       <c r="L225" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="N225" t="b">
         <v>0</v>
@@ -19297,7 +19036,7 @@
         <v>34</v>
       </c>
       <c r="R225" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="S225" t="s">
         <v>973</v>
@@ -19319,7 +19058,7 @@
         <v>50</v>
       </c>
       <c r="C226" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D226" t="s">
         <v>41</v>
@@ -19328,34 +19067,34 @@
         <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G226">
         <v>5019995122957</v>
       </c>
       <c r="H226"/>
       <c r="I226" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="J226" t="s">
         <v>803</v>
       </c>
       <c r="K226"/>
       <c r="L226" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="N226" t="b">
         <v>0</v>
       </c>
       <c r="O226"/>
       <c r="P226" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="Q226" t="s">
         <v>34</v>
       </c>
       <c r="R226" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="S226" t="s">
         <v>67</v>
@@ -19377,45 +19116,41 @@
         <v>50</v>
       </c>
       <c r="C227" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D227" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E227" t="s">
         <v>27</v>
       </c>
       <c r="F227" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G227">
         <v>20547836473</v>
       </c>
-      <c r="H227" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I227" t="s">
-        <v>1097</v>
-      </c>
+      <c r="H227"/>
+      <c r="I227"/>
       <c r="J227" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="K227"/>
       <c r="L227" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="N227" t="b">
         <v>0</v>
       </c>
       <c r="O227"/>
       <c r="P227" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="Q227" t="s">
         <v>34</v>
       </c>
       <c r="R227" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S227" t="s">
         <v>730</v>
@@ -19423,12 +19158,8 @@
       <c r="T227"/>
       <c r="U227"/>
       <c r="V227"/>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
+      <c r="W227"/>
+      <c r="X227"/>
       <c r="Y227" t="s">
         <v>39</v>
       </c>
@@ -19441,16 +19172,16 @@
         <v>50</v>
       </c>
       <c r="C228" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D228" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E228" t="s">
         <v>42</v>
       </c>
       <c r="F228" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="G228">
         <v>20100128056</v>
@@ -19458,24 +19189,24 @@
       <c r="H228"/>
       <c r="I228"/>
       <c r="J228" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="K228"/>
       <c r="L228" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="N228" t="b">
         <v>0</v>
       </c>
       <c r="O228"/>
       <c r="P228" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="Q228" t="s">
         <v>34</v>
       </c>
       <c r="R228" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S228" t="s">
         <v>75</v>
@@ -19497,16 +19228,16 @@
         <v>50</v>
       </c>
       <c r="C229" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D229" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E229" t="s">
         <v>27</v>
       </c>
       <c r="F229" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G229">
         <v>20108625580</v>
@@ -19514,7 +19245,7 @@
       <c r="H229"/>
       <c r="I229"/>
       <c r="J229" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="K229"/>
       <c r="L229">
@@ -19525,13 +19256,13 @@
       </c>
       <c r="O229"/>
       <c r="P229" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="Q229" t="s">
         <v>34</v>
       </c>
       <c r="R229" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S229" t="s">
         <v>36</v>
@@ -19553,16 +19284,16 @@
         <v>50</v>
       </c>
       <c r="C230" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D230" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E230" t="s">
         <v>27</v>
       </c>
       <c r="F230" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="G230">
         <v>20528221140</v>
@@ -19570,7 +19301,7 @@
       <c r="H230"/>
       <c r="I230"/>
       <c r="J230" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="K230"/>
       <c r="L230">
@@ -19581,13 +19312,13 @@
       </c>
       <c r="O230"/>
       <c r="P230" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="Q230" t="s">
         <v>34</v>
       </c>
       <c r="R230" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S230" t="s">
         <v>36</v>
@@ -19609,16 +19340,16 @@
         <v>50</v>
       </c>
       <c r="C231" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D231" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E231" t="s">
         <v>27</v>
       </c>
       <c r="F231" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="G231">
         <v>20507179411</v>
@@ -19626,24 +19357,24 @@
       <c r="H231"/>
       <c r="I231"/>
       <c r="J231" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="K231"/>
       <c r="L231" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="N231" t="b">
         <v>0</v>
       </c>
       <c r="O231"/>
       <c r="P231" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q231" t="s">
         <v>34</v>
       </c>
       <c r="R231" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S231" t="s">
         <v>36</v>
@@ -19665,16 +19396,16 @@
         <v>50</v>
       </c>
       <c r="C232" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D232" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E232" t="s">
         <v>27</v>
       </c>
       <c r="F232" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="G232">
         <v>20100070970</v>
@@ -19682,24 +19413,24 @@
       <c r="H232"/>
       <c r="I232"/>
       <c r="J232" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="K232"/>
       <c r="L232" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="N232" t="b">
         <v>0</v>
       </c>
       <c r="O232"/>
       <c r="P232" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="Q232" t="s">
         <v>34</v>
       </c>
       <c r="R232" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S232" t="s">
         <v>36</v>
@@ -19721,16 +19452,16 @@
         <v>50</v>
       </c>
       <c r="C233" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D233" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E233" t="s">
         <v>27</v>
       </c>
       <c r="F233" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="G233">
         <v>20109072177</v>
@@ -19738,24 +19469,24 @@
       <c r="H233"/>
       <c r="I233"/>
       <c r="J233" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="K233"/>
       <c r="L233" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="N233" t="b">
         <v>0</v>
       </c>
       <c r="O233"/>
       <c r="P233" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="Q233" t="s">
         <v>34</v>
       </c>
       <c r="R233" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S233" t="s">
         <v>36</v>
@@ -19777,16 +19508,16 @@
         <v>50</v>
       </c>
       <c r="C234" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D234" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E234" t="s">
         <v>27</v>
       </c>
       <c r="F234" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="G234">
         <v>20337564373</v>
@@ -19794,24 +19525,24 @@
       <c r="H234"/>
       <c r="I234"/>
       <c r="J234" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="K234"/>
       <c r="L234" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="N234" t="b">
         <v>0</v>
       </c>
       <c r="O234"/>
       <c r="P234" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="Q234" t="s">
         <v>34</v>
       </c>
       <c r="R234" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S234" t="s">
         <v>36</v>
@@ -19833,16 +19564,16 @@
         <v>50</v>
       </c>
       <c r="C235" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D235" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E235" t="s">
         <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G235">
         <v>20302218774</v>
@@ -19850,24 +19581,24 @@
       <c r="H235"/>
       <c r="I235"/>
       <c r="J235" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="K235"/>
       <c r="L235" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="N235" t="b">
         <v>0</v>
       </c>
       <c r="O235"/>
       <c r="P235" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="Q235" t="s">
         <v>34</v>
       </c>
       <c r="R235" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S235" t="s">
         <v>36</v>
@@ -19889,16 +19620,16 @@
         <v>50</v>
       </c>
       <c r="C236" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D236" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E236" t="s">
         <v>27</v>
       </c>
       <c r="F236" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="G236">
         <v>20348624866</v>
@@ -19906,27 +19637,27 @@
       <c r="H236"/>
       <c r="I236"/>
       <c r="J236" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="K236"/>
       <c r="L236" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="N236" t="b">
         <v>0</v>
       </c>
       <c r="O236"/>
       <c r="P236" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="Q236" t="s">
         <v>34</v>
       </c>
       <c r="R236" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S236" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="T236"/>
       <c r="U236"/>
@@ -19945,16 +19676,16 @@
         <v>50</v>
       </c>
       <c r="C237" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D237" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E237" t="s">
         <v>27</v>
       </c>
       <c r="F237" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="G237">
         <v>20101042773</v>
@@ -19962,24 +19693,24 @@
       <c r="H237"/>
       <c r="I237"/>
       <c r="J237" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="K237"/>
       <c r="L237" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="N237" t="b">
         <v>0</v>
       </c>
       <c r="O237"/>
       <c r="P237" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="Q237" t="s">
         <v>34</v>
       </c>
       <c r="R237" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S237" t="s">
         <v>887</v>
@@ -20001,16 +19732,16 @@
         <v>50</v>
       </c>
       <c r="C238" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D238" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E238" t="s">
         <v>27</v>
       </c>
       <c r="F238" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="G238">
         <v>10139342</v>
@@ -20018,24 +19749,24 @@
       <c r="H238"/>
       <c r="I238"/>
       <c r="J238" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="K238"/>
       <c r="L238" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="N238" t="b">
         <v>0</v>
       </c>
       <c r="O238"/>
       <c r="P238" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="Q238" t="s">
         <v>34</v>
       </c>
       <c r="R238" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="S238" t="s">
         <v>887</v>
@@ -20066,10 +19797,10 @@
         <v>27</v>
       </c>
       <c r="F239" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="G239" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="H239" t="s">
         <v>260</v>
@@ -20089,7 +19820,7 @@
         <v>34</v>
       </c>
       <c r="R239" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="S239" t="s">
         <v>36</v>
@@ -20120,23 +19851,23 @@
         <v>27</v>
       </c>
       <c r="F240" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G240" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="H240" t="s">
         <v>377</v>
       </c>
       <c r="I240" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="J240" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="K240"/>
       <c r="L240" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="N240" t="b">
         <v>0</v>
@@ -20147,7 +19878,7 @@
         <v>34</v>
       </c>
       <c r="R240" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="S240" t="s">
         <v>36</v>
@@ -20184,19 +19915,19 @@
         <v>27</v>
       </c>
       <c r="F241" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G241" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="H241" t="s">
         <v>26</v>
       </c>
       <c r="I241" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="J241" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="K241">
         <v>20150660204</v>
@@ -20213,10 +19944,10 @@
         <v>34</v>
       </c>
       <c r="R241" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="S241" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="T241"/>
       <c r="U241"/>
@@ -20248,25 +19979,25 @@
         <v>27</v>
       </c>
       <c r="F242" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H242" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K242" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L242" t="s">
         <v>1158</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H242" t="s">
-        <v>26</v>
-      </c>
-      <c r="I242" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J242" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K242" t="s">
-        <v>1162</v>
-      </c>
-      <c r="L242" t="s">
-        <v>1163</v>
       </c>
       <c r="N242" t="b">
         <v>0</v>
@@ -20277,10 +20008,10 @@
         <v>34</v>
       </c>
       <c r="R242" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="S242" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="T242"/>
       <c r="U242"/>
@@ -20312,13 +20043,13 @@
         <v>27</v>
       </c>
       <c r="F243" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="G243"/>
       <c r="H243"/>
       <c r="I243"/>
       <c r="J243" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="K243"/>
       <c r="L243"/>
@@ -20331,10 +20062,10 @@
         <v>34</v>
       </c>
       <c r="R243" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="S243" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="T243"/>
       <c r="U243"/>
@@ -20362,7 +20093,7 @@
         <v>41</v>
       </c>
       <c r="F244" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="G244">
         <v>342423</v>
@@ -20370,7 +20101,7 @@
       <c r="H244"/>
       <c r="I244"/>
       <c r="J244" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="K244"/>
       <c r="L244"/>
@@ -20383,7 +20114,7 @@
         <v>34</v>
       </c>
       <c r="R244" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="S244" t="s">
         <v>49</v>
@@ -20414,22 +20145,22 @@
         <v>27</v>
       </c>
       <c r="F245" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I245" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J245" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K245" t="s">
         <v>1171</v>
-      </c>
-      <c r="G245" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I245" t="s">
-        <v>1174</v>
-      </c>
-      <c r="J245" t="s">
-        <v>1175</v>
-      </c>
-      <c r="K245" t="s">
-        <v>1176</v>
       </c>
       <c r="L245">
         <v>5557488</v>
@@ -20443,10 +20174,10 @@
         <v>34</v>
       </c>
       <c r="R245" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="S245" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="T245"/>
       <c r="U245"/>
@@ -20478,7 +20209,7 @@
         <v>27</v>
       </c>
       <c r="F246" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="G246">
         <v>1030609567</v>
@@ -20487,10 +20218,10 @@
         <v>260</v>
       </c>
       <c r="I246" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="J246" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="K246"/>
       <c r="L246">
@@ -20505,7 +20236,7 @@
         <v>34</v>
       </c>
       <c r="R246" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="S246" t="s">
         <v>697</v>
@@ -20540,7 +20271,7 @@
         <v>27</v>
       </c>
       <c r="F247" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="G247">
         <v>830133132</v>
@@ -20549,10 +20280,10 @@
         <v>260</v>
       </c>
       <c r="I247" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="J247" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="K247"/>
       <c r="L247">
@@ -20567,7 +20298,7 @@
         <v>34</v>
       </c>
       <c r="R247" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="S247" t="s">
         <v>940</v>
@@ -20602,19 +20333,19 @@
         <v>42</v>
       </c>
       <c r="F248" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="G248" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="H248" t="s">
         <v>260</v>
       </c>
       <c r="I248" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="J248" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="K248"/>
       <c r="L248">
@@ -20629,10 +20360,10 @@
         <v>34</v>
       </c>
       <c r="R248" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="S248" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="T248"/>
       <c r="U248"/>
@@ -20664,21 +20395,21 @@
         <v>42</v>
       </c>
       <c r="F249" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="G249">
         <v>3006106660</v>
       </c>
       <c r="H249" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="I249"/>
       <c r="J249" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="K249"/>
       <c r="L249" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="N249" t="b">
         <v>0</v>
@@ -20689,7 +20420,7 @@
         <v>34</v>
       </c>
       <c r="R249" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="S249" t="s">
         <v>36</v>
@@ -20720,19 +20451,19 @@
         <v>27</v>
       </c>
       <c r="F250" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="G250" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="H250" t="s">
         <v>44</v>
       </c>
       <c r="I250" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="J250" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="K250">
         <v>7401653</v>
@@ -20749,7 +20480,7 @@
         <v>34</v>
       </c>
       <c r="R250" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="S250" t="s">
         <v>777</v>
@@ -20784,25 +20515,25 @@
         <v>27</v>
       </c>
       <c r="F251" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H251" t="s">
+        <v>26</v>
+      </c>
+      <c r="I251" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J251" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K251" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L251" t="s">
         <v>1197</v>
-      </c>
-      <c r="G251" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H251" t="s">
-        <v>26</v>
-      </c>
-      <c r="I251" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J251" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K251" t="s">
-        <v>1201</v>
-      </c>
-      <c r="L251" t="s">
-        <v>1202</v>
       </c>
       <c r="N251" t="b">
         <v>0</v>
@@ -20813,7 +20544,7 @@
         <v>34</v>
       </c>
       <c r="R251" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="S251" t="s">
         <v>75</v>
@@ -20848,13 +20579,13 @@
         <v>27</v>
       </c>
       <c r="F252" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="G252" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="H252" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="I252">
         <v>12345</v>
@@ -20871,13 +20602,13 @@
       </c>
       <c r="O252"/>
       <c r="P252" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="Q252" t="s">
         <v>34</v>
       </c>
       <c r="R252" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="S252" t="s">
         <v>36</v>
@@ -20912,25 +20643,25 @@
         <v>27</v>
       </c>
       <c r="F253" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K253" t="s">
+        <v>1206</v>
+      </c>
+      <c r="L253" t="s">
         <v>1207</v>
-      </c>
-      <c r="G253" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H253" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I253" t="s">
-        <v>1209</v>
-      </c>
-      <c r="J253" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K253" t="s">
-        <v>1211</v>
-      </c>
-      <c r="L253" t="s">
-        <v>1212</v>
       </c>
       <c r="N253" t="b">
         <v>0</v>
@@ -20941,7 +20672,7 @@
         <v>34</v>
       </c>
       <c r="R253" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="S253" t="s">
         <v>777</v>
@@ -20972,25 +20703,25 @@
         <v>27</v>
       </c>
       <c r="F254" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K254" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L254" t="s">
         <v>1214</v>
-      </c>
-      <c r="G254" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I254" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J254" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K254" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L254" t="s">
-        <v>1219</v>
       </c>
       <c r="N254" t="b">
         <v>0</v>
@@ -21001,7 +20732,7 @@
         <v>34</v>
       </c>
       <c r="R254" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="S254" t="s">
         <v>777</v>
@@ -21036,23 +20767,23 @@
         <v>42</v>
       </c>
       <c r="F255" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="G255" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="H255" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="I255" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="J255" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="K255"/>
       <c r="L255" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="N255" t="b">
         <v>0</v>
@@ -21063,7 +20794,7 @@
         <v>34</v>
       </c>
       <c r="R255" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="S255" t="s">
         <v>973</v>
@@ -21085,7 +20816,7 @@
         <v>50</v>
       </c>
       <c r="C256" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D256" t="s">
         <v>41</v>
@@ -21094,13 +20825,13 @@
         <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="G256">
         <v>12345678910</v>
       </c>
       <c r="H256" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="I256"/>
       <c r="J256" t="s">
@@ -21117,7 +20848,7 @@
         <v>34</v>
       </c>
       <c r="R256" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="S256" t="s">
         <v>36</v>
@@ -21139,7 +20870,7 @@
         <v>50</v>
       </c>
       <c r="C257" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D257" t="s">
         <v>41</v>
@@ -21148,13 +20879,13 @@
         <v>41</v>
       </c>
       <c r="F257" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="G257">
         <v>1234567891011</v>
       </c>
       <c r="H257" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="I257"/>
       <c r="J257" t="s">
@@ -21171,7 +20902,7 @@
         <v>34</v>
       </c>
       <c r="R257" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="S257" t="s">
         <v>36</v>
@@ -21202,25 +20933,25 @@
         <v>27</v>
       </c>
       <c r="F258" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K258" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L258" t="s">
         <v>1230</v>
-      </c>
-      <c r="G258" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H258" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I258" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J258" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K258" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L258" t="s">
-        <v>1235</v>
       </c>
       <c r="N258" t="b">
         <v>0</v>
@@ -21231,10 +20962,10 @@
         <v>34</v>
       </c>
       <c r="R258" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="S258" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="T258"/>
       <c r="U258"/>
@@ -21262,38 +20993,38 @@
         <v>27</v>
       </c>
       <c r="F259" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="G259">
         <v>811031313</v>
       </c>
       <c r="H259" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="I259" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="J259" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="K259" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="L259" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="N259" t="b">
         <v>1</v>
       </c>
       <c r="O259" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="P259"/>
       <c r="Q259" t="s">
         <v>34</v>
       </c>
       <c r="R259" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="S259" t="s">
         <v>75</v>
@@ -21328,25 +21059,25 @@
         <v>41</v>
       </c>
       <c r="F260" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I260" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K260" t="s">
+        <v>1244</v>
+      </c>
+      <c r="L260" t="s">
         <v>1245</v>
-      </c>
-      <c r="G260" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H260" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I260" t="s">
-        <v>1247</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1248</v>
-      </c>
-      <c r="K260" t="s">
-        <v>1249</v>
-      </c>
-      <c r="L260" t="s">
-        <v>1250</v>
       </c>
       <c r="N260" t="b">
         <v>0</v>
@@ -21357,7 +21088,7 @@
         <v>34</v>
       </c>
       <c r="R260" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="S260" t="s">
         <v>75</v>
@@ -21388,25 +21119,25 @@
         <v>27</v>
       </c>
       <c r="F261" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K261" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L261" t="s">
         <v>1252</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H261" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I261" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J261" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K261" t="s">
-        <v>1256</v>
-      </c>
-      <c r="L261" t="s">
-        <v>1257</v>
       </c>
       <c r="N261" t="b">
         <v>0</v>
@@ -21417,7 +21148,7 @@
         <v>34</v>
       </c>
       <c r="R261" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="S261" t="s">
         <v>36</v>
@@ -21448,23 +21179,23 @@
         <v>27</v>
       </c>
       <c r="F262" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="G262" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="H262" t="s">
         <v>260</v>
       </c>
       <c r="I262" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="J262" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="K262"/>
       <c r="L262" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="N262" t="b">
         <v>0</v>
@@ -21475,7 +21206,7 @@
         <v>34</v>
       </c>
       <c r="R262" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="S262" t="s">
         <v>777</v>
@@ -21510,19 +21241,19 @@
         <v>27</v>
       </c>
       <c r="F263" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="G263" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="H263" t="s">
         <v>260</v>
       </c>
       <c r="I263" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="J263" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="K263"/>
       <c r="L263">
@@ -21537,7 +21268,7 @@
         <v>34</v>
       </c>
       <c r="R263" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="S263" t="s">
         <v>777</v>
@@ -21572,19 +21303,19 @@
         <v>27</v>
       </c>
       <c r="F264" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="G264" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="H264" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="I264" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="J264" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="K264"/>
       <c r="L264">
@@ -21599,7 +21330,7 @@
         <v>34</v>
       </c>
       <c r="R264" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="S264" t="s">
         <v>75</v>
@@ -21630,17 +21361,17 @@
         <v>27</v>
       </c>
       <c r="F265" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="G265" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="H265"/>
       <c r="I265" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="J265" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="K265"/>
       <c r="L265">
@@ -21655,7 +21386,7 @@
         <v>34</v>
       </c>
       <c r="R265" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="S265" t="s">
         <v>75</v>
@@ -21686,23 +21417,23 @@
         <v>42</v>
       </c>
       <c r="F266" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="G266" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="H266" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="I266" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="J266" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="K266"/>
       <c r="L266" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="N266" t="b">
         <v>0</v>
@@ -21713,10 +21444,10 @@
         <v>34</v>
       </c>
       <c r="R266" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="S266" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="T266"/>
       <c r="U266"/>
@@ -21744,15 +21475,15 @@
         <v>27</v>
       </c>
       <c r="F267" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="G267" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="H267"/>
       <c r="I267"/>
       <c r="J267" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="K267"/>
       <c r="L267"/>
@@ -21765,7 +21496,7 @@
         <v>34</v>
       </c>
       <c r="R267" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="S267" t="s">
         <v>777</v>
@@ -21796,17 +21527,17 @@
         <v>27</v>
       </c>
       <c r="F268" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="G268" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="H268"/>
       <c r="I268" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="J268" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="K268"/>
       <c r="L268">
@@ -21821,7 +21552,7 @@
         <v>34</v>
       </c>
       <c r="R268" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="S268" t="s">
         <v>777</v>
@@ -21852,25 +21583,25 @@
         <v>27</v>
       </c>
       <c r="F269" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K269" t="s">
         <v>1293</v>
       </c>
-      <c r="G269" t="s">
+      <c r="L269" t="s">
         <v>1294</v>
-      </c>
-      <c r="H269" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I269" t="s">
-        <v>1296</v>
-      </c>
-      <c r="J269" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K269" t="s">
-        <v>1298</v>
-      </c>
-      <c r="L269" t="s">
-        <v>1299</v>
       </c>
       <c r="N269" t="b">
         <v>0</v>
@@ -21881,7 +21612,7 @@
         <v>34</v>
       </c>
       <c r="R269" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="S269" t="s">
         <v>144</v>
@@ -21916,36 +21647,36 @@
         <v>42</v>
       </c>
       <c r="F270" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="G270" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="H270" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="I270" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="J270" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="K270"/>
       <c r="L270" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="N270" t="b">
         <v>0</v>
       </c>
       <c r="O270"/>
       <c r="P270" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="Q270" t="s">
         <v>34</v>
       </c>
       <c r="R270" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="S270" t="s">
         <v>973</v>
@@ -21980,25 +21711,25 @@
         <v>27</v>
       </c>
       <c r="F271" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K271" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L271" t="s">
         <v>1309</v>
-      </c>
-      <c r="G271" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H271" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I271" t="s">
-        <v>1311</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1312</v>
-      </c>
-      <c r="K271" t="s">
-        <v>1313</v>
-      </c>
-      <c r="L271" t="s">
-        <v>1314</v>
       </c>
       <c r="N271" t="b">
         <v>0</v>
@@ -22009,7 +21740,7 @@
         <v>34</v>
       </c>
       <c r="R271" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="S271" t="s">
         <v>777</v>
@@ -22040,23 +21771,23 @@
         <v>27</v>
       </c>
       <c r="F272" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="G272" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="H272" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="I272" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="J272" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="K272"/>
       <c r="L272" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="N272" t="b">
         <v>0</v>
@@ -22067,7 +21798,7 @@
         <v>34</v>
       </c>
       <c r="R272" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="S272" t="s">
         <v>777</v>
@@ -22098,14 +21829,14 @@
         <v>41</v>
       </c>
       <c r="F273" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="G273" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="H273"/>
       <c r="I273" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="J273" t="s">
         <v>948</v>
@@ -22119,13 +21850,13 @@
       </c>
       <c r="O273"/>
       <c r="P273" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="Q273" t="s">
         <v>34</v>
       </c>
       <c r="R273" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="S273" t="s">
         <v>67</v>
@@ -22156,17 +21887,17 @@
         <v>41</v>
       </c>
       <c r="F274" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="G274" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="H274"/>
       <c r="I274" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="J274" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="K274"/>
       <c r="L274"/>
@@ -22179,7 +21910,7 @@
         <v>34</v>
       </c>
       <c r="R274" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="S274" t="s">
         <v>777</v>
@@ -22210,19 +21941,19 @@
         <v>27</v>
       </c>
       <c r="F275" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="G275" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="H275" t="s">
         <v>26</v>
       </c>
       <c r="I275" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="J275" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="K275"/>
       <c r="L275">
@@ -22233,13 +21964,13 @@
       </c>
       <c r="O275"/>
       <c r="P275" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="Q275" t="s">
         <v>34</v>
       </c>
       <c r="R275" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="S275" t="s">
         <v>67</v>
@@ -22270,17 +22001,17 @@
         <v>27</v>
       </c>
       <c r="F276" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="G276">
         <v>9003730123</v>
       </c>
       <c r="H276"/>
       <c r="I276" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="J276" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="K276"/>
       <c r="L276">
@@ -22295,7 +22026,7 @@
         <v>34</v>
       </c>
       <c r="R276" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="S276" t="s">
         <v>67</v>
@@ -22326,7 +22057,7 @@
         <v>41</v>
       </c>
       <c r="F277" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="G277">
         <v>52793418</v>
@@ -22349,7 +22080,7 @@
         <v>34</v>
       </c>
       <c r="R277" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="S277" t="s">
         <v>36</v>
@@ -22380,25 +22111,25 @@
         <v>27</v>
       </c>
       <c r="F278" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K278" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L278" t="s">
         <v>1338</v>
-      </c>
-      <c r="G278" t="s">
-        <v>1339</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I278" t="s">
-        <v>1340</v>
-      </c>
-      <c r="J278" t="s">
-        <v>1341</v>
-      </c>
-      <c r="K278" t="s">
-        <v>1342</v>
-      </c>
-      <c r="L278" t="s">
-        <v>1343</v>
       </c>
       <c r="N278" t="b">
         <v>0</v>
@@ -22409,7 +22140,7 @@
         <v>34</v>
       </c>
       <c r="R278" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="S278" t="s">
         <v>795</v>
@@ -22440,25 +22171,25 @@
         <v>27</v>
       </c>
       <c r="F279" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J279" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K279" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L279" t="s">
         <v>1345</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H279" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I279" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K279" t="s">
-        <v>1349</v>
-      </c>
-      <c r="L279" t="s">
-        <v>1350</v>
       </c>
       <c r="N279" t="b">
         <v>0</v>
@@ -22469,7 +22200,7 @@
         <v>34</v>
       </c>
       <c r="R279" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="S279" t="s">
         <v>36</v>
@@ -22500,7 +22231,7 @@
         <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="G280">
         <v>123456</v>
@@ -22508,7 +22239,7 @@
       <c r="H280"/>
       <c r="I280"/>
       <c r="J280" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="K280"/>
       <c r="L280"/>
@@ -22521,7 +22252,7 @@
         <v>34</v>
       </c>
       <c r="R280" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="S280" t="s">
         <v>36</v>
@@ -22552,7 +22283,7 @@
         <v>27</v>
       </c>
       <c r="F281" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="G281">
         <v>890400246</v>
@@ -22560,7 +22291,7 @@
       <c r="H281"/>
       <c r="I281"/>
       <c r="J281" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="K281"/>
       <c r="L281"/>
@@ -22573,10 +22304,10 @@
         <v>34</v>
       </c>
       <c r="R281" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="S281" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="T281"/>
       <c r="U281"/>
@@ -22604,25 +22335,25 @@
         <v>27</v>
       </c>
       <c r="F282" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1355</v>
+      </c>
+      <c r="J282" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K282" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L282" t="s">
         <v>1358</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I282" t="s">
-        <v>1360</v>
-      </c>
-      <c r="J282" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K282" t="s">
-        <v>1362</v>
-      </c>
-      <c r="L282" t="s">
-        <v>1363</v>
       </c>
       <c r="N282" t="b">
         <v>0</v>
@@ -22633,10 +22364,10 @@
         <v>34</v>
       </c>
       <c r="R282" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="S282" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="T282"/>
       <c r="U282"/>
@@ -22664,25 +22395,25 @@
         <v>27</v>
       </c>
       <c r="F283" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I283" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J283" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K283" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L283" t="s">
         <v>1366</v>
-      </c>
-      <c r="G283" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I283" t="s">
-        <v>1368</v>
-      </c>
-      <c r="J283" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K283" t="s">
-        <v>1370</v>
-      </c>
-      <c r="L283" t="s">
-        <v>1371</v>
       </c>
       <c r="N283" t="b">
         <v>0</v>
@@ -22693,7 +22424,7 @@
         <v>34</v>
       </c>
       <c r="R283" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="S283" t="s">
         <v>67</v>
@@ -22724,19 +22455,19 @@
         <v>27</v>
       </c>
       <c r="F284" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G284">
         <v>9006968505</v>
       </c>
       <c r="H284" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="I284" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="J284" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="K284"/>
       <c r="L284">
@@ -22747,13 +22478,13 @@
       </c>
       <c r="O284"/>
       <c r="P284" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="Q284" t="s">
         <v>34</v>
       </c>
       <c r="R284" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="S284" t="s">
         <v>973</v>
@@ -22784,17 +22515,17 @@
         <v>27</v>
       </c>
       <c r="F285" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G285">
         <v>0</v>
       </c>
       <c r="H285"/>
       <c r="I285" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="J285" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="K285"/>
       <c r="L285"/>
@@ -22807,7 +22538,7 @@
         <v>34</v>
       </c>
       <c r="R285" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="S285" t="s">
         <v>67</v>
@@ -22832,31 +22563,31 @@
         <v>25</v>
       </c>
       <c r="D286" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="E286" t="s">
         <v>41</v>
       </c>
       <c r="F286" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J286" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K286" t="s">
         <v>1382</v>
       </c>
-      <c r="G286" t="s">
+      <c r="L286" t="s">
         <v>1383</v>
-      </c>
-      <c r="H286" t="s">
-        <v>1384</v>
-      </c>
-      <c r="I286" t="s">
-        <v>1385</v>
-      </c>
-      <c r="J286" t="s">
-        <v>1386</v>
-      </c>
-      <c r="K286" t="s">
-        <v>1387</v>
-      </c>
-      <c r="L286" t="s">
-        <v>1388</v>
       </c>
       <c r="N286" t="b">
         <v>0</v>
@@ -22867,10 +22598,10 @@
         <v>34</v>
       </c>
       <c r="R286" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="S286" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="T286"/>
       <c r="U286"/>
@@ -22892,25 +22623,25 @@
         <v>25</v>
       </c>
       <c r="D287" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="E287" t="s">
         <v>27</v>
       </c>
       <c r="F287" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="G287" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="H287" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="I287" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="J287" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="K287"/>
       <c r="L287">
@@ -22925,7 +22656,7 @@
         <v>34</v>
       </c>
       <c r="R287" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="S287" t="s">
         <v>973</v>
@@ -22956,15 +22687,15 @@
         <v>27</v>
       </c>
       <c r="F288" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="G288" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="H288"/>
       <c r="I288"/>
       <c r="J288" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="K288"/>
       <c r="L288"/>
@@ -22977,7 +22708,7 @@
         <v>34</v>
       </c>
       <c r="R288" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="S288" t="s">
         <v>36</v>
@@ -23008,25 +22739,25 @@
         <v>27</v>
       </c>
       <c r="F289" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H289" t="s">
+        <v>26</v>
+      </c>
+      <c r="I289" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J289" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K289" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L289" t="s">
         <v>1400</v>
-      </c>
-      <c r="G289" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H289" t="s">
-        <v>26</v>
-      </c>
-      <c r="I289" t="s">
-        <v>1402</v>
-      </c>
-      <c r="J289" t="s">
-        <v>1403</v>
-      </c>
-      <c r="K289" t="s">
-        <v>1404</v>
-      </c>
-      <c r="L289" t="s">
-        <v>1405</v>
       </c>
       <c r="N289" t="b">
         <v>0</v>
@@ -23037,7 +22768,7 @@
         <v>34</v>
       </c>
       <c r="R289" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="S289" t="s">
         <v>144</v>
@@ -23068,7 +22799,7 @@
         <v>27</v>
       </c>
       <c r="F290" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="G290">
         <v>800018365</v>
@@ -23077,16 +22808,16 @@
         <v>26</v>
       </c>
       <c r="I290" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="J290" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="K290" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="L290" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="N290" t="b">
         <v>0</v>
@@ -23097,7 +22828,7 @@
         <v>34</v>
       </c>
       <c r="R290" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="S290" t="s">
         <v>777</v>
@@ -23132,19 +22863,19 @@
         <v>42</v>
       </c>
       <c r="F291" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="G291">
         <v>209589055</v>
       </c>
       <c r="H291" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="I291" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="J291" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="K291"/>
       <c r="L291">
@@ -23159,7 +22890,7 @@
         <v>34</v>
       </c>
       <c r="R291" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="S291" t="s">
         <v>426</v>
@@ -23185,33 +22916,27 @@
         <v>50</v>
       </c>
       <c r="C292" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D292" t="s">
         <v>41</v>
       </c>
       <c r="E292" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F292" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="G292" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H292" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I292" t="s">
-        <v>1421</v>
-      </c>
+        <v>1415</v>
+      </c>
+      <c r="H292"/>
+      <c r="I292"/>
       <c r="J292" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="K292"/>
-      <c r="L292">
-        <v>945965260</v>
-      </c>
+      <c r="L292"/>
       <c r="N292" t="b">
         <v>0</v>
       </c>
@@ -23221,7 +22946,7 @@
         <v>34</v>
       </c>
       <c r="R292" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="S292" t="s">
         <v>730</v>
@@ -23229,12 +22954,8 @@
       <c r="T292"/>
       <c r="U292"/>
       <c r="V292"/>
-      <c r="W292">
-        <v>0</v>
-      </c>
-      <c r="X292">
-        <v>0</v>
-      </c>
+      <c r="W292"/>
+      <c r="X292"/>
       <c r="Y292" t="s">
         <v>39</v>
       </c>
@@ -23247,33 +22968,27 @@
         <v>50</v>
       </c>
       <c r="C293" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D293" t="s">
         <v>41</v>
       </c>
       <c r="E293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="G293" t="s">
-        <v>1425</v>
-      </c>
-      <c r="H293" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I293" t="s">
-        <v>1426</v>
-      </c>
+        <v>1419</v>
+      </c>
+      <c r="H293"/>
+      <c r="I293"/>
       <c r="J293" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="K293"/>
-      <c r="L293" t="s">
-        <v>1428</v>
-      </c>
+      <c r="L293"/>
       <c r="N293" t="b">
         <v>0</v>
       </c>
@@ -23283,7 +22998,7 @@
         <v>34</v>
       </c>
       <c r="R293" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="S293" t="s">
         <v>940</v>
@@ -23291,12 +23006,8 @@
       <c r="T293"/>
       <c r="U293"/>
       <c r="V293"/>
-      <c r="W293">
-        <v>0</v>
-      </c>
-      <c r="X293">
-        <v>0</v>
-      </c>
+      <c r="W293"/>
+      <c r="X293"/>
       <c r="Y293" t="s">
         <v>185</v>
       </c>
@@ -23309,7 +23020,7 @@
         <v>50</v>
       </c>
       <c r="C294" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="D294" t="s">
         <v>41</v>
@@ -23318,15 +23029,15 @@
         <v>41</v>
       </c>
       <c r="F294" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="G294" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="H294"/>
       <c r="I294"/>
       <c r="J294" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="K294"/>
       <c r="L294"/>
@@ -23339,10 +23050,10 @@
         <v>34</v>
       </c>
       <c r="R294" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="S294" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="T294"/>
       <c r="U294"/>
@@ -23370,25 +23081,25 @@
         <v>27</v>
       </c>
       <c r="F295" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="G295" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="H295" t="s">
         <v>26</v>
       </c>
       <c r="I295" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="J295" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="K295" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="L295" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="N295" t="b">
         <v>0</v>
@@ -23399,7 +23110,7 @@
         <v>34</v>
       </c>
       <c r="R295" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="S295" t="s">
         <v>777</v>
@@ -23430,23 +23141,23 @@
         <v>27</v>
       </c>
       <c r="F296" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="G296" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="H296" t="s">
         <v>26</v>
       </c>
       <c r="I296" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="J296" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="K296"/>
       <c r="L296" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="N296" t="b">
         <v>0</v>
@@ -23457,7 +23168,7 @@
         <v>34</v>
       </c>
       <c r="R296" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="S296" t="s">
         <v>67</v>
@@ -23468,882 +23179,6 @@
       <c r="W296"/>
       <c r="X296"/>
       <c r="Y296" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="297" spans="1:25">
-      <c r="A297">
-        <v>461</v>
-      </c>
-      <c r="B297" t="s">
-        <v>50</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D297" t="s">
-        <v>41</v>
-      </c>
-      <c r="E297" t="s">
-        <v>42</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H297" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I297" t="s">
-        <v>1448</v>
-      </c>
-      <c r="J297" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K297"/>
-      <c r="L297" t="s">
-        <v>1449</v>
-      </c>
-      <c r="N297" t="b">
-        <v>0</v>
-      </c>
-      <c r="O297"/>
-      <c r="P297"/>
-      <c r="Q297" t="s">
-        <v>34</v>
-      </c>
-      <c r="R297" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S297" t="s">
-        <v>75</v>
-      </c>
-      <c r="T297"/>
-      <c r="U297"/>
-      <c r="V297"/>
-      <c r="W297">
-        <v>0</v>
-      </c>
-      <c r="X297">
-        <v>0</v>
-      </c>
-      <c r="Y297" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="298" spans="1:25">
-      <c r="A298">
-        <v>462</v>
-      </c>
-      <c r="B298" t="s">
-        <v>50</v>
-      </c>
-      <c r="C298" t="s">
-        <v>41</v>
-      </c>
-      <c r="D298" t="s">
-        <v>41</v>
-      </c>
-      <c r="E298" t="s">
-        <v>41</v>
-      </c>
-      <c r="F298" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G298" t="s">
-        <v>1452</v>
-      </c>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298" t="s">
-        <v>1453</v>
-      </c>
-      <c r="K298"/>
-      <c r="L298" t="s">
-        <v>1454</v>
-      </c>
-      <c r="N298" t="b">
-        <v>0</v>
-      </c>
-      <c r="O298"/>
-      <c r="P298"/>
-      <c r="Q298" t="s">
-        <v>34</v>
-      </c>
-      <c r="R298" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S298" t="s">
-        <v>36</v>
-      </c>
-      <c r="T298"/>
-      <c r="U298"/>
-      <c r="V298"/>
-      <c r="W298"/>
-      <c r="X298"/>
-      <c r="Y298" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="299" spans="1:25">
-      <c r="A299">
-        <v>463</v>
-      </c>
-      <c r="B299" t="s">
-        <v>50</v>
-      </c>
-      <c r="C299" t="s">
-        <v>41</v>
-      </c>
-      <c r="D299" t="s">
-        <v>41</v>
-      </c>
-      <c r="E299" t="s">
-        <v>41</v>
-      </c>
-      <c r="F299" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G299" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299" t="s">
-        <v>1457</v>
-      </c>
-      <c r="K299"/>
-      <c r="L299" t="s">
-        <v>1458</v>
-      </c>
-      <c r="N299" t="b">
-        <v>0</v>
-      </c>
-      <c r="O299"/>
-      <c r="P299"/>
-      <c r="Q299" t="s">
-        <v>34</v>
-      </c>
-      <c r="R299" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S299" t="s">
-        <v>36</v>
-      </c>
-      <c r="T299"/>
-      <c r="U299"/>
-      <c r="V299"/>
-      <c r="W299"/>
-      <c r="X299"/>
-      <c r="Y299" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="300" spans="1:25">
-      <c r="A300">
-        <v>464</v>
-      </c>
-      <c r="B300" t="s">
-        <v>50</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D300" t="s">
-        <v>41</v>
-      </c>
-      <c r="E300" t="s">
-        <v>42</v>
-      </c>
-      <c r="F300" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G300" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H300" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I300" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J300" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K300"/>
-      <c r="L300" t="s">
-        <v>1428</v>
-      </c>
-      <c r="N300" t="b">
-        <v>0</v>
-      </c>
-      <c r="O300"/>
-      <c r="P300"/>
-      <c r="Q300" t="s">
-        <v>34</v>
-      </c>
-      <c r="R300" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S300" t="s">
-        <v>1432</v>
-      </c>
-      <c r="T300"/>
-      <c r="U300"/>
-      <c r="V300"/>
-      <c r="W300">
-        <v>0</v>
-      </c>
-      <c r="X300">
-        <v>0</v>
-      </c>
-      <c r="Y300" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="301" spans="1:25">
-      <c r="A301">
-        <v>465</v>
-      </c>
-      <c r="B301" t="s">
-        <v>50</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D301" t="s">
-        <v>41</v>
-      </c>
-      <c r="E301" t="s">
-        <v>42</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1461</v>
-      </c>
-      <c r="G301" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H301" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I301" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J301" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K301"/>
-      <c r="L301" t="s">
-        <v>1463</v>
-      </c>
-      <c r="N301" t="b">
-        <v>0</v>
-      </c>
-      <c r="O301"/>
-      <c r="P301"/>
-      <c r="Q301" t="s">
-        <v>34</v>
-      </c>
-      <c r="R301" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S301" t="s">
-        <v>75</v>
-      </c>
-      <c r="T301"/>
-      <c r="U301"/>
-      <c r="V301"/>
-      <c r="W301">
-        <v>0</v>
-      </c>
-      <c r="X301">
-        <v>0</v>
-      </c>
-      <c r="Y301" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="302" spans="1:25">
-      <c r="A302">
-        <v>466</v>
-      </c>
-      <c r="B302" t="s">
-        <v>24</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D302" t="s">
-        <v>41</v>
-      </c>
-      <c r="E302" t="s">
-        <v>42</v>
-      </c>
-      <c r="F302" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G302" t="s">
-        <v>1465</v>
-      </c>
-      <c r="H302" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I302" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J302" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K302"/>
-      <c r="L302" t="s">
-        <v>1428</v>
-      </c>
-      <c r="N302" t="b">
-        <v>0</v>
-      </c>
-      <c r="O302"/>
-      <c r="P302"/>
-      <c r="Q302" t="s">
-        <v>34</v>
-      </c>
-      <c r="R302" t="s">
-        <v>1450</v>
-      </c>
-      <c r="S302" t="s">
-        <v>75</v>
-      </c>
-      <c r="T302"/>
-      <c r="U302"/>
-      <c r="V302"/>
-      <c r="W302">
-        <v>0</v>
-      </c>
-      <c r="X302">
-        <v>0</v>
-      </c>
-      <c r="Y302" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="303" spans="1:25">
-      <c r="A303">
-        <v>467</v>
-      </c>
-      <c r="B303" t="s">
-        <v>50</v>
-      </c>
-      <c r="C303" t="s">
-        <v>25</v>
-      </c>
-      <c r="D303" t="s">
-        <v>26</v>
-      </c>
-      <c r="E303" t="s">
-        <v>27</v>
-      </c>
-      <c r="F303" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G303" t="s">
-        <v>1467</v>
-      </c>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303" t="s">
-        <v>1468</v>
-      </c>
-      <c r="K303"/>
-      <c r="L303"/>
-      <c r="N303" t="b">
-        <v>0</v>
-      </c>
-      <c r="O303"/>
-      <c r="P303"/>
-      <c r="Q303" t="s">
-        <v>34</v>
-      </c>
-      <c r="R303" t="s">
-        <v>1469</v>
-      </c>
-      <c r="S303" t="s">
-        <v>973</v>
-      </c>
-      <c r="T303"/>
-      <c r="U303"/>
-      <c r="V303"/>
-      <c r="W303"/>
-      <c r="X303"/>
-      <c r="Y303" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="304" spans="1:25">
-      <c r="A304">
-        <v>468</v>
-      </c>
-      <c r="B304" t="s">
-        <v>50</v>
-      </c>
-      <c r="C304" t="s">
-        <v>25</v>
-      </c>
-      <c r="D304" t="s">
-        <v>26</v>
-      </c>
-      <c r="E304" t="s">
-        <v>27</v>
-      </c>
-      <c r="F304" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G304" t="s">
-        <v>1471</v>
-      </c>
-      <c r="H304" t="s">
-        <v>26</v>
-      </c>
-      <c r="I304" t="s">
-        <v>1472</v>
-      </c>
-      <c r="J304" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K304" t="s">
-        <v>1474</v>
-      </c>
-      <c r="L304" t="s">
-        <v>1475</v>
-      </c>
-      <c r="N304" t="b">
-        <v>0</v>
-      </c>
-      <c r="O304"/>
-      <c r="P304"/>
-      <c r="Q304" t="s">
-        <v>34</v>
-      </c>
-      <c r="R304" t="s">
-        <v>1476</v>
-      </c>
-      <c r="S304" t="s">
-        <v>67</v>
-      </c>
-      <c r="T304"/>
-      <c r="U304"/>
-      <c r="V304"/>
-      <c r="W304">
-        <v>0</v>
-      </c>
-      <c r="X304">
-        <v>0</v>
-      </c>
-      <c r="Y304" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="305" spans="1:25">
-      <c r="A305">
-        <v>469</v>
-      </c>
-      <c r="B305" t="s">
-        <v>50</v>
-      </c>
-      <c r="C305" t="s">
-        <v>25</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E305" t="s">
-        <v>41</v>
-      </c>
-      <c r="F305" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G305" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1479</v>
-      </c>
-      <c r="I305" t="s">
-        <v>1480</v>
-      </c>
-      <c r="J305" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K305"/>
-      <c r="L305">
-        <v>3781673</v>
-      </c>
-      <c r="N305" t="b">
-        <v>0</v>
-      </c>
-      <c r="O305"/>
-      <c r="P305"/>
-      <c r="Q305" t="s">
-        <v>34</v>
-      </c>
-      <c r="R305" t="s">
-        <v>1482</v>
-      </c>
-      <c r="S305" t="s">
-        <v>36</v>
-      </c>
-      <c r="T305"/>
-      <c r="U305"/>
-      <c r="V305"/>
-      <c r="W305"/>
-      <c r="X305"/>
-      <c r="Y305" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="306" spans="1:25">
-      <c r="A306">
-        <v>470</v>
-      </c>
-      <c r="B306" t="s">
-        <v>40</v>
-      </c>
-      <c r="C306" t="s">
-        <v>25</v>
-      </c>
-      <c r="D306" t="s">
-        <v>26</v>
-      </c>
-      <c r="E306" t="s">
-        <v>42</v>
-      </c>
-      <c r="F306" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G306" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H306" t="s">
-        <v>1485</v>
-      </c>
-      <c r="I306" t="s">
-        <v>1486</v>
-      </c>
-      <c r="J306" t="s">
-        <v>1487</v>
-      </c>
-      <c r="K306"/>
-      <c r="L306" t="s">
-        <v>1488</v>
-      </c>
-      <c r="N306" t="b">
-        <v>0</v>
-      </c>
-      <c r="O306"/>
-      <c r="P306"/>
-      <c r="Q306" t="s">
-        <v>34</v>
-      </c>
-      <c r="R306" t="s">
-        <v>1489</v>
-      </c>
-      <c r="S306" t="s">
-        <v>973</v>
-      </c>
-      <c r="T306"/>
-      <c r="U306"/>
-      <c r="V306"/>
-      <c r="W306"/>
-      <c r="X306"/>
-      <c r="Y306" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="307" spans="1:25">
-      <c r="A307">
-        <v>471</v>
-      </c>
-      <c r="B307" t="s">
-        <v>40</v>
-      </c>
-      <c r="C307" t="s">
-        <v>25</v>
-      </c>
-      <c r="D307" t="s">
-        <v>996</v>
-      </c>
-      <c r="E307" t="s">
-        <v>42</v>
-      </c>
-      <c r="F307" t="s">
-        <v>1490</v>
-      </c>
-      <c r="G307" t="s">
-        <v>1491</v>
-      </c>
-      <c r="H307" t="s">
-        <v>1492</v>
-      </c>
-      <c r="I307" t="s">
-        <v>1493</v>
-      </c>
-      <c r="J307" t="s">
-        <v>1494</v>
-      </c>
-      <c r="K307"/>
-      <c r="L307">
-        <v>3251614</v>
-      </c>
-      <c r="N307" t="b">
-        <v>0</v>
-      </c>
-      <c r="O307"/>
-      <c r="P307"/>
-      <c r="Q307" t="s">
-        <v>34</v>
-      </c>
-      <c r="R307" t="s">
-        <v>1489</v>
-      </c>
-      <c r="S307" t="s">
-        <v>36</v>
-      </c>
-      <c r="T307"/>
-      <c r="U307"/>
-      <c r="V307"/>
-      <c r="W307"/>
-      <c r="X307"/>
-      <c r="Y307" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="308" spans="1:25">
-      <c r="A308">
-        <v>472</v>
-      </c>
-      <c r="B308" t="s">
-        <v>50</v>
-      </c>
-      <c r="C308" t="s">
-        <v>25</v>
-      </c>
-      <c r="D308" t="s">
-        <v>26</v>
-      </c>
-      <c r="E308" t="s">
-        <v>27</v>
-      </c>
-      <c r="F308" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G308" t="s">
-        <v>1496</v>
-      </c>
-      <c r="H308" t="s">
-        <v>1497</v>
-      </c>
-      <c r="I308" t="s">
-        <v>1498</v>
-      </c>
-      <c r="J308" t="s">
-        <v>1499</v>
-      </c>
-      <c r="K308"/>
-      <c r="L308" t="s">
-        <v>1500</v>
-      </c>
-      <c r="N308" t="b">
-        <v>0</v>
-      </c>
-      <c r="O308"/>
-      <c r="P308"/>
-      <c r="Q308" t="s">
-        <v>34</v>
-      </c>
-      <c r="R308" t="s">
-        <v>1501</v>
-      </c>
-      <c r="S308" t="s">
-        <v>973</v>
-      </c>
-      <c r="T308"/>
-      <c r="U308"/>
-      <c r="V308"/>
-      <c r="W308"/>
-      <c r="X308"/>
-      <c r="Y308" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="309" spans="1:25">
-      <c r="A309">
-        <v>473</v>
-      </c>
-      <c r="B309" t="s">
-        <v>50</v>
-      </c>
-      <c r="C309" t="s">
-        <v>25</v>
-      </c>
-      <c r="D309" t="s">
-        <v>26</v>
-      </c>
-      <c r="E309" t="s">
-        <v>27</v>
-      </c>
-      <c r="F309" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G309" t="s">
-        <v>1503</v>
-      </c>
-      <c r="H309" t="s">
-        <v>26</v>
-      </c>
-      <c r="I309" t="s">
-        <v>1504</v>
-      </c>
-      <c r="J309" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K309" t="s">
-        <v>1506</v>
-      </c>
-      <c r="L309" t="s">
-        <v>1507</v>
-      </c>
-      <c r="N309" t="b">
-        <v>0</v>
-      </c>
-      <c r="O309"/>
-      <c r="P309"/>
-      <c r="Q309" t="s">
-        <v>34</v>
-      </c>
-      <c r="R309" t="s">
-        <v>1501</v>
-      </c>
-      <c r="S309" t="s">
-        <v>973</v>
-      </c>
-      <c r="T309"/>
-      <c r="U309"/>
-      <c r="V309"/>
-      <c r="W309"/>
-      <c r="X309"/>
-      <c r="Y309" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="310" spans="1:25">
-      <c r="A310">
-        <v>474</v>
-      </c>
-      <c r="B310" t="s">
-        <v>50</v>
-      </c>
-      <c r="C310" t="s">
-        <v>25</v>
-      </c>
-      <c r="D310" t="s">
-        <v>26</v>
-      </c>
-      <c r="E310" t="s">
-        <v>27</v>
-      </c>
-      <c r="F310" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G310" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H310" t="s">
-        <v>26</v>
-      </c>
-      <c r="I310" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J310" t="s">
-        <v>1511</v>
-      </c>
-      <c r="K310" t="s">
-        <v>1512</v>
-      </c>
-      <c r="L310">
-        <v>4114211</v>
-      </c>
-      <c r="N310" t="b">
-        <v>0</v>
-      </c>
-      <c r="O310"/>
-      <c r="P310"/>
-      <c r="Q310" t="s">
-        <v>34</v>
-      </c>
-      <c r="R310" t="s">
-        <v>1513</v>
-      </c>
-      <c r="S310" t="s">
-        <v>75</v>
-      </c>
-      <c r="T310"/>
-      <c r="U310"/>
-      <c r="V310"/>
-      <c r="W310"/>
-      <c r="X310"/>
-      <c r="Y310" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="311" spans="1:25">
-      <c r="A311">
-        <v>475</v>
-      </c>
-      <c r="B311" t="s">
-        <v>40</v>
-      </c>
-      <c r="C311" t="s">
-        <v>41</v>
-      </c>
-      <c r="D311" t="s">
-        <v>41</v>
-      </c>
-      <c r="E311" t="s">
-        <v>41</v>
-      </c>
-      <c r="F311">
-        <v>5345235</v>
-      </c>
-      <c r="G311">
-        <v>5345235</v>
-      </c>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311" t="s">
-        <v>1514</v>
-      </c>
-      <c r="K311"/>
-      <c r="L311"/>
-      <c r="N311" t="b">
-        <v>0</v>
-      </c>
-      <c r="O311"/>
-      <c r="P311"/>
-      <c r="Q311" t="s">
-        <v>34</v>
-      </c>
-      <c r="R311" t="s">
-        <v>1515</v>
-      </c>
-      <c r="S311" t="s">
-        <v>1516</v>
-      </c>
-      <c r="T311"/>
-      <c r="U311"/>
-      <c r="V311"/>
-      <c r="W311"/>
-      <c r="X311"/>
-      <c r="Y311" t="s">
         <v>39</v>
       </c>
     </row>
